--- a/2021-01-09/202101-09-202101-10初级阶段.xlsx
+++ b/2021-01-09/202101-09-202101-10初级阶段.xlsx
@@ -1032,48 +1032,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="B2" s="20">
+      <c r="B2" s="23">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="B3" s="20"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
     <row r="5" spans="1:29" ht="18.75" customHeight="1">
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="27">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1616,8 +1616,8 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
     <row r="11" spans="1:29">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="30">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1712,7 +1712,7 @@
       <c r="T11" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="V11">
@@ -1726,8 +1726,8 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="19"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="T12" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="19"/>
+      <c r="U12" s="22"/>
       <c r="V12">
         <v>2</v>
       </c>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="13" spans="1:29" ht="27" customHeight="1"/>
     <row r="14" spans="1:29">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="27">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1841,13 +1841,13 @@
       <c r="S14" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1881,37 +1881,37 @@
       <c r="S15" t="s">
         <v>47</v>
       </c>
-      <c r="U15" s="19"/>
+      <c r="U15" s="22"/>
     </row>
     <row r="16" spans="1:29" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
       <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:18" s="15" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1"/>
     <row r="21" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B21" s="20">
+      <c r="B21" s="23">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1997,7 +1997,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -2024,34 +2024,34 @@
       </c>
     </row>
     <row r="23" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
       <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="27">
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
@@ -2108,43 +2108,43 @@
       </c>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
       <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
       <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="20">
+      <c r="B29" s="23">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -2199,28 +2199,28 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:1" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="29" customFormat="1"/>
-    <row r="35" spans="1:1" s="29" customFormat="1"/>
-    <row r="36" spans="1:1" s="29" customFormat="1"/>
-    <row r="37" spans="1:1" s="29" customFormat="1"/>
-    <row r="38" spans="1:1" s="29" customFormat="1"/>
-    <row r="39" spans="1:1" s="29" customFormat="1"/>
-    <row r="41" spans="1:1" s="30" customFormat="1">
-      <c r="A41" s="29" t="s">
+    <row r="34" spans="1:1" s="24" customFormat="1"/>
+    <row r="35" spans="1:1" s="24" customFormat="1"/>
+    <row r="36" spans="1:1" s="24" customFormat="1"/>
+    <row r="37" spans="1:1" s="24" customFormat="1"/>
+    <row r="38" spans="1:1" s="24" customFormat="1"/>
+    <row r="39" spans="1:1" s="24" customFormat="1"/>
+    <row r="41" spans="1:1" s="19" customFormat="1">
+      <c r="A41" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="30" customFormat="1"/>
-    <row r="43" spans="1:1" s="30" customFormat="1"/>
-    <row r="44" spans="1:1" s="30" customFormat="1"/>
-    <row r="45" spans="1:1" s="30" customFormat="1"/>
-    <row r="46" spans="1:1" s="30" customFormat="1"/>
-    <row r="47" spans="1:1" s="30" customFormat="1"/>
+    <row r="42" spans="1:1" s="19" customFormat="1"/>
+    <row r="43" spans="1:1" s="19" customFormat="1"/>
+    <row r="44" spans="1:1" s="19" customFormat="1"/>
+    <row r="45" spans="1:1" s="19" customFormat="1"/>
+    <row r="46" spans="1:1" s="19" customFormat="1"/>
+    <row r="47" spans="1:1" s="19" customFormat="1"/>
     <row r="49" spans="1:22" ht="36.75" customHeight="1">
       <c r="A49" t="s">
         <v>25</v>
@@ -2273,16 +2273,16 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="22"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="23">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -2311,8 +2311,8 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" t="s">
         <v>69</v>
       </c>
@@ -2338,19 +2338,19 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="27" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:22" s="25" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A53" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="27" customFormat="1" ht="38.25" customHeight="1"/>
-    <row r="55" spans="1:22" s="27" customFormat="1" ht="38.25" customHeight="1"/>
-    <row r="56" spans="1:22" s="27" customFormat="1" ht="38.25" customHeight="1"/>
+    <row r="54" spans="1:22" s="25" customFormat="1" ht="38.25" customHeight="1"/>
+    <row r="55" spans="1:22" s="25" customFormat="1" ht="38.25" customHeight="1"/>
+    <row r="56" spans="1:22" s="25" customFormat="1" ht="38.25" customHeight="1"/>
     <row r="60" spans="1:22">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="23">
         <v>1</v>
       </c>
       <c r="C60" t="s">
@@ -2379,8 +2379,8 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="C61" t="s">
         <v>72</v>
       </c>
@@ -2406,19 +2406,19 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="27" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A62" s="29" t="s">
+    <row r="62" spans="1:22" s="25" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A62" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="27" customFormat="1"/>
-    <row r="64" spans="1:22" s="27" customFormat="1"/>
-    <row r="65" spans="1:18" s="27" customFormat="1"/>
+    <row r="63" spans="1:22" s="25" customFormat="1"/>
+    <row r="64" spans="1:22" s="25" customFormat="1"/>
+    <row r="65" spans="1:18" s="25" customFormat="1"/>
     <row r="70" spans="1:18" s="4" customFormat="1">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="27">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2448,8 +2448,8 @@
       <c r="R70" s="18"/>
     </row>
     <row r="71" spans="1:18" s="4" customFormat="1">
-      <c r="A71" s="31"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="4" t="s">
         <v>65</v>
       </c>
@@ -2476,39 +2476,20 @@
       </c>
       <c r="R71" s="18"/>
     </row>
-    <row r="72" spans="1:18" s="33" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A72" s="32" t="s">
+    <row r="72" spans="1:18" s="21" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A72" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="33" customFormat="1" ht="39.75" customHeight="1"/>
-    <row r="74" spans="1:18" s="33" customFormat="1" ht="39.75" customHeight="1"/>
-    <row r="76" spans="1:18" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A76" s="30" t="s">
+    <row r="73" spans="1:18" s="21" customFormat="1" ht="39.75" customHeight="1"/>
+    <row r="74" spans="1:18" s="21" customFormat="1" ht="39.75" customHeight="1"/>
+    <row r="76" spans="1:18" s="19" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="A72:XFD74"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:XFD56"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:XFD65"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A33:XFD39"/>
-    <mergeCell ref="A41:XFD47"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B26"/>
@@ -2521,6 +2502,25 @@
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="B23:J24"/>
     <mergeCell ref="B27:O28"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A33:XFD39"/>
+    <mergeCell ref="A41:XFD47"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="A72:XFD74"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:XFD56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:XFD65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
